--- a/public/sample/ProductStocks.xlsx
+++ b/public/sample/ProductStocks.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Zruits\zehnaecom_laravel\public\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Avvatar\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33220CF-B606-4A52-B183-63641CDD5AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="181029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>product_name</t>
   </si>
@@ -27,38 +28,39 @@
     <t>size_name</t>
   </si>
   <si>
-    <t>color_name</t>
-  </si>
-  <si>
-    <t>stock_qty</t>
-  </si>
-  <si>
     <t>Test Name</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>color 1</t>
-  </si>
-  <si>
-    <t>color 2</t>
-  </si>
-  <si>
-    <t>color 3</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Sell Price</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>2 Kg</t>
+  </si>
+  <si>
+    <t>5 Kg</t>
+  </si>
+  <si>
+    <t>Stock_qty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -144,7 +146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +179,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,6 +231,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -387,11 +423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +438,7 @@
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,98 +446,120 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>800</v>
+      </c>
+      <c r="D2">
+        <v>700</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="C3">
+        <v>900</v>
+      </c>
+      <c r="D3">
+        <v>600</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1100</v>
+      </c>
+      <c r="D5">
+        <v>1050</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1200</v>
+      </c>
+      <c r="D6">
+        <v>1100</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="C7">
+        <v>1300</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>1250</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>